--- a/UI/bin/Debug/Excel/TransferOrderNote.xlsx
+++ b/UI/bin/Debug/Excel/TransferOrderNote.xlsx
@@ -24,9 +24,6 @@
     <t>#SET TABLE COLUMNS 11</t>
   </si>
   <si>
-    <t>仓库:@ticket.WarehouseName</t>
-  </si>
-  <si>
     <t>零件号</t>
   </si>
   <si>
@@ -74,10 +71,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>时间:@ticket.CreateTime;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>项目:</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -107,6 +100,14 @@
   </si>
   <si>
     <t>#WRITE item[i].operateTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间:@ticket.createTime;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库:@ticket.warehouseName</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -231,25 +232,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +531,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,127 +541,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="H4" s="15" t="s">
-        <v>18</v>
+      <c r="H4" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="9"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">

--- a/UI/bin/Debug/Excel/TransferOrderNote.xlsx
+++ b/UI/bin/Debug/Excel/TransferOrderNote.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgh\Desktop\wms_client\UI\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Source\Repos\12.18\WMSClient\UI\bin\Debug\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>#WRITE item[i].targetStorageLocationName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>#WRITE item[i].scheduledAmount</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>目标库位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>计划移库总数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -108,6 +100,37 @@
   </si>
   <si>
     <t>仓库:@ticket.warehouseName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#WRITE item[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StorageLocationName</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>源库位</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +151,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -141,6 +166,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,17 +175,28 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -201,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +288,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +571,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -545,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -556,7 +596,7 @@
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -570,7 +610,7 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -582,15 +622,15 @@
     </row>
     <row r="4" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="H4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="9"/>
       <c r="K4" s="7"/>
@@ -611,15 +651,15 @@
         <v>4</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -650,18 +690,18 @@
         <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="12" t="s">
-        <v>10</v>
+      <c r="H7" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
